--- a/backend/src/algo/MySpreadsheet.xlsx
+++ b/backend/src/algo/MySpreadsheet.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -412,6 +412,7 @@
     <col min="7" max="7" customWidth="1" width="16"/>
     <col min="8" max="8" customWidth="1" width="10"/>
     <col min="9" max="9" customWidth="1" width="8"/>
+    <col min="10" max="10" customWidth="1" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -442,6 +443,9 @@
       <c r="I1" t="str">
         <v>Slot</v>
       </c>
+      <c r="J1" t="str">
+        <v>External Tecaher</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -457,19 +461,22 @@
         <v>E15783</v>
       </c>
       <c r="E2" t="str">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F2" t="str">
         <v>14-D2</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J2" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="3">
@@ -486,19 +493,22 @@
         <v>E13365</v>
       </c>
       <c r="E3" t="str">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="F3" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J3" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="4">
@@ -515,19 +525,22 @@
         <v>E13845</v>
       </c>
       <c r="E4" t="str">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="F4" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="5">
@@ -544,19 +557,22 @@
         <v>E11286</v>
       </c>
       <c r="E5" t="str">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="F5" t="str">
         <v>14-D2</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="6">
@@ -573,19 +589,22 @@
         <v>E15791</v>
       </c>
       <c r="E6" t="str">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="F6" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J6" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="7">
@@ -602,19 +621,22 @@
         <v>E13851</v>
       </c>
       <c r="E7" t="str">
-        <v>211</v>
+        <v>408</v>
       </c>
       <c r="F7" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1">
         <v>45400</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J7" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="8">
@@ -631,19 +653,22 @@
         <v>E11286</v>
       </c>
       <c r="E8" t="str">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="F8" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J8" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="9">
@@ -660,19 +685,22 @@
         <v>E15043</v>
       </c>
       <c r="E9" t="str">
-        <v>210</v>
+        <v>512</v>
       </c>
       <c r="F9" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I9">
         <v>4</v>
+      </c>
+      <c r="J9" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="10">
@@ -689,19 +717,22 @@
         <v>E15060</v>
       </c>
       <c r="E10" t="str">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="str">
         <v>11-D4</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I10">
         <v>4</v>
+      </c>
+      <c r="J10" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="11">
@@ -718,19 +749,22 @@
         <v>E15507</v>
       </c>
       <c r="E11" t="str">
-        <v>512</v>
+        <v>104</v>
       </c>
       <c r="F11" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1">
         <v>45400</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="12">
@@ -747,19 +781,22 @@
         <v>E16189</v>
       </c>
       <c r="E12" t="str">
-        <v>409</v>
+        <v>211</v>
       </c>
       <c r="F12" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J12" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="13">
@@ -776,19 +813,22 @@
         <v>E15043</v>
       </c>
       <c r="E13" t="str">
-        <v>101</v>
+        <v>415</v>
       </c>
       <c r="F13" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G13">
         <v>35</v>
       </c>
       <c r="H13" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J13" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="14">
@@ -805,19 +845,22 @@
         <v>E16298</v>
       </c>
       <c r="E14" t="str">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F14" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G14">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J14" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="15">
@@ -834,7 +877,7 @@
         <v>E12800</v>
       </c>
       <c r="E15" t="str">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F15" t="str">
         <v>14-D2</v>
@@ -843,10 +886,13 @@
         <v>35</v>
       </c>
       <c r="H15" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J15" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="16">
@@ -863,19 +909,22 @@
         <v>E13464</v>
       </c>
       <c r="E16" t="str">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="F16" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G16">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1">
         <v>45401</v>
       </c>
       <c r="I16">
         <v>3</v>
+      </c>
+      <c r="J16" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="17">
@@ -892,19 +941,22 @@
         <v>E13851</v>
       </c>
       <c r="E17" t="str">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="F17" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1">
         <v>45402</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J17" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="18">
@@ -921,19 +973,22 @@
         <v>E13122</v>
       </c>
       <c r="E18" t="str">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="F18" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J18" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="19">
@@ -950,19 +1005,22 @@
         <v>E13465</v>
       </c>
       <c r="E19" t="str">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F19" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G19">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H19" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I19">
         <v>3</v>
+      </c>
+      <c r="J19" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="20">
@@ -979,19 +1037,22 @@
         <v>E13548</v>
       </c>
       <c r="E20" t="str">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="F20" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G20">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H20" s="1">
         <v>45402</v>
       </c>
       <c r="I20">
         <v>4</v>
+      </c>
+      <c r="J20" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="21">
@@ -1008,19 +1069,22 @@
         <v>E15372</v>
       </c>
       <c r="E21" t="str">
-        <v>106</v>
+        <v>209-A</v>
       </c>
       <c r="F21" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I21">
         <v>3</v>
+      </c>
+      <c r="J21" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="22">
@@ -1037,19 +1101,22 @@
         <v>E16302</v>
       </c>
       <c r="E22" t="str">
-        <v>104</v>
+        <v>413</v>
       </c>
       <c r="F22" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J22" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1133,22 @@
         <v>E15400</v>
       </c>
       <c r="E23" t="str">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="F23" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G23">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H23" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J23" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="24">
@@ -1095,19 +1165,22 @@
         <v>E15043</v>
       </c>
       <c r="E24" t="str">
-        <v>104</v>
+        <v>408</v>
       </c>
       <c r="F24" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J24" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1197,22 @@
         <v>E15060</v>
       </c>
       <c r="E25" t="str">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="F25" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <v>E13847</v>
       </c>
     </row>
     <row r="26">
@@ -1153,19 +1229,22 @@
         <v>E15400</v>
       </c>
       <c r="E26" t="str">
-        <v>104</v>
+        <v>508</v>
       </c>
       <c r="F26" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G26">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="27">
@@ -1182,10 +1261,10 @@
         <v>E16189</v>
       </c>
       <c r="E27" t="str">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="F27" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G27">
         <v>40</v>
@@ -1194,7 +1273,10 @@
         <v>45400</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J27" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1293,22 @@
         <v>E15507</v>
       </c>
       <c r="E28" t="str">
-        <v>106</v>
+        <v>317</v>
       </c>
       <c r="F28" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G28">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J28" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="29">
@@ -1240,19 +1325,22 @@
         <v>E16298</v>
       </c>
       <c r="E29" t="str">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="F29" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1">
         <v>45402</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J29" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="30">
@@ -1278,10 +1366,13 @@
         <v>40</v>
       </c>
       <c r="H30" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J30" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="31">
@@ -1298,19 +1389,22 @@
         <v>E13464</v>
       </c>
       <c r="E31" t="str">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F31" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G31">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I31">
         <v>3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="32">
@@ -1327,19 +1421,22 @@
         <v>E13851</v>
       </c>
       <c r="E32" t="str">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="F32" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G32">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H32" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J32" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="33">
@@ -1368,7 +1465,10 @@
         <v>45400</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J33" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="34">
@@ -1385,19 +1485,22 @@
         <v>E13465</v>
       </c>
       <c r="E34" t="str">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F34" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G34">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H34" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I34">
         <v>4</v>
+      </c>
+      <c r="J34" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="35">
@@ -1414,19 +1517,22 @@
         <v>E13548</v>
       </c>
       <c r="E35" t="str">
-        <v>512</v>
+        <v>308</v>
       </c>
       <c r="F35" t="str">
         <v>14-D2</v>
       </c>
       <c r="G35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="str">
+        <v>E1857</v>
       </c>
     </row>
     <row r="36">
@@ -1443,10 +1549,10 @@
         <v>E12652</v>
       </c>
       <c r="E36" t="str">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="F36" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G36">
         <v>40</v>
@@ -1455,7 +1561,10 @@
         <v>45402</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="37">
@@ -1472,19 +1581,22 @@
         <v>E16302</v>
       </c>
       <c r="E37" t="str">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F37" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G37">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I37">
         <v>1</v>
+      </c>
+      <c r="J37" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="38">
@@ -1501,19 +1613,22 @@
         <v>E15400</v>
       </c>
       <c r="E38" t="str">
-        <v>103</v>
+        <v>410</v>
       </c>
       <c r="F38" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G38">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H38" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I38">
         <v>2</v>
+      </c>
+      <c r="J38" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="39">
@@ -1530,19 +1645,22 @@
         <v>E15506</v>
       </c>
       <c r="E39" t="str">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="F39" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J39" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="40">
@@ -1559,19 +1677,22 @@
         <v>E15783</v>
       </c>
       <c r="E40" t="str">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="F40" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G40">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H40" s="1">
         <v>45400</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J40" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="41">
@@ -1588,19 +1709,22 @@
         <v>E13845</v>
       </c>
       <c r="E41" t="str">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="F41" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G41">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J41" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="42">
@@ -1617,19 +1741,22 @@
         <v>E13845</v>
       </c>
       <c r="E42" t="str">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="F42" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J42" t="str">
+        <v>E1326</v>
       </c>
     </row>
     <row r="43">
@@ -1646,19 +1773,22 @@
         <v>E11286</v>
       </c>
       <c r="E43" t="str">
-        <v>416</v>
+        <v>102</v>
       </c>
       <c r="F43" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="44">
@@ -1675,19 +1805,22 @@
         <v>E15791</v>
       </c>
       <c r="E44" t="str">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F44" t="str">
         <v>14-D2</v>
       </c>
       <c r="G44">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I44">
         <v>4</v>
+      </c>
+      <c r="J44" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="45">
@@ -1704,19 +1837,22 @@
         <v>E8042</v>
       </c>
       <c r="E45" t="str">
-        <v>101</v>
+        <v>415</v>
       </c>
       <c r="F45" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G45">
         <v>35</v>
       </c>
       <c r="H45" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="46">
@@ -1733,19 +1869,22 @@
         <v>E16298</v>
       </c>
       <c r="E46" t="str">
-        <v>104</v>
+        <v>414</v>
       </c>
       <c r="F46" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I46">
         <v>4</v>
+      </c>
+      <c r="J46" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="47">
@@ -1762,19 +1901,22 @@
         <v>E12800</v>
       </c>
       <c r="E47" t="str">
-        <v>106</v>
+        <v>414</v>
       </c>
       <c r="F47" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G47">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I47">
         <v>1</v>
+      </c>
+      <c r="J47" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="48">
@@ -1791,19 +1933,22 @@
         <v>E13464</v>
       </c>
       <c r="E48" t="str">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="F48" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G48">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H48" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J48" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="49">
@@ -1820,19 +1965,22 @@
         <v>E13851</v>
       </c>
       <c r="E49" t="str">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="F49" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H49" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="50">
@@ -1849,19 +1997,22 @@
         <v>E13122</v>
       </c>
       <c r="E50" t="str">
-        <v>514</v>
+        <v>106</v>
       </c>
       <c r="F50" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H50" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J50" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="51">
@@ -1887,10 +2038,13 @@
         <v>40</v>
       </c>
       <c r="H51" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J51" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="52">
@@ -1907,19 +2061,22 @@
         <v>E13548</v>
       </c>
       <c r="E52" t="str">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F52" t="str">
         <v>14-D2</v>
       </c>
       <c r="G52">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H52" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="53">
@@ -1936,19 +2093,22 @@
         <v>E15372</v>
       </c>
       <c r="E53" t="str">
-        <v>207</v>
+        <v>508</v>
       </c>
       <c r="F53" t="str">
         <v>14-D2</v>
       </c>
       <c r="G53">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H53" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J53" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="54">
@@ -1965,19 +2125,22 @@
         <v>E15063</v>
       </c>
       <c r="E54" t="str">
-        <v>104</v>
+        <v>209-A</v>
       </c>
       <c r="F54" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G54">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H54" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="55">
@@ -1994,19 +2157,22 @@
         <v>E8752</v>
       </c>
       <c r="E55" t="str">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F55" t="str">
         <v>14-D2</v>
       </c>
       <c r="G55">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H55" s="1">
         <v>45401</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J55" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="56">
@@ -2023,19 +2189,22 @@
         <v>E15134</v>
       </c>
       <c r="E56" t="str">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F56" t="str">
         <v>14-D2</v>
       </c>
       <c r="G56">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H56" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="57">
@@ -2052,19 +2221,22 @@
         <v>E11286</v>
       </c>
       <c r="E57" t="str">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="F57" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G57">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H57" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="58">
@@ -2081,19 +2253,22 @@
         <v>E13845</v>
       </c>
       <c r="E58" t="str">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="F58" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G58">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H58" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J58" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="59">
@@ -2110,19 +2285,22 @@
         <v>E16227</v>
       </c>
       <c r="E59" t="str">
-        <v>412</v>
+        <v>106</v>
       </c>
       <c r="F59" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H59" s="1">
         <v>45400</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J59" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="60">
@@ -2139,19 +2317,22 @@
         <v>E15791</v>
       </c>
       <c r="E60" t="str">
-        <v>411</v>
+        <v>102</v>
       </c>
       <c r="F60" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G60">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="61">
@@ -2168,19 +2349,22 @@
         <v>E15043</v>
       </c>
       <c r="E61" t="str">
-        <v>104</v>
+        <v>414</v>
       </c>
       <c r="F61" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G61">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="62">
@@ -2197,19 +2381,22 @@
         <v>E15060</v>
       </c>
       <c r="E62" t="str">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F62" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G62">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H62" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J62" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="63">
@@ -2226,19 +2413,22 @@
         <v>E16189</v>
       </c>
       <c r="E63" t="str">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F63" t="str">
         <v>14-D2</v>
       </c>
       <c r="G63">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H63" s="1">
         <v>45401</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J63" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="64">
@@ -2255,19 +2445,22 @@
         <v>E16189</v>
       </c>
       <c r="E64" t="str">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="F64" t="str">
         <v>14-D2</v>
       </c>
       <c r="G64">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J64" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="65">
@@ -2284,19 +2477,22 @@
         <v>E15190</v>
       </c>
       <c r="E65" t="str">
-        <v>211</v>
+        <v>416</v>
       </c>
       <c r="F65" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G65">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H65" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J65" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="66">
@@ -2313,19 +2509,22 @@
         <v>E13465</v>
       </c>
       <c r="E66" t="str">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="F66" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G66">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H66" s="1">
         <v>45401</v>
       </c>
       <c r="I66">
         <v>2</v>
+      </c>
+      <c r="J66" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="67">
@@ -2342,19 +2541,22 @@
         <v>E13548</v>
       </c>
       <c r="E67" t="str">
-        <v>317</v>
+        <v>411</v>
       </c>
       <c r="F67" t="str">
         <v>14-D2</v>
       </c>
       <c r="G67">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I67">
         <v>3</v>
+      </c>
+      <c r="J67" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="68">
@@ -2371,19 +2573,22 @@
         <v>E12652</v>
       </c>
       <c r="E68" t="str">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="F68" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G68">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H68" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J68" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="69">
@@ -2400,19 +2605,22 @@
         <v>E13548</v>
       </c>
       <c r="E69" t="str">
-        <v>307</v>
+        <v>209-A</v>
       </c>
       <c r="F69" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G69">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H69" s="1">
         <v>45401</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J69" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="70">
@@ -2429,7 +2637,7 @@
         <v>E13548</v>
       </c>
       <c r="E70" t="str">
-        <v>306</v>
+        <v>415</v>
       </c>
       <c r="F70" t="str">
         <v>14-D2</v>
@@ -2438,10 +2646,13 @@
         <v>35</v>
       </c>
       <c r="H70" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I70">
         <v>1</v>
+      </c>
+      <c r="J70" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="71">
@@ -2467,10 +2678,13 @@
         <v>33</v>
       </c>
       <c r="H71" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I71">
         <v>4</v>
+      </c>
+      <c r="J71" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="72">
@@ -2487,19 +2701,22 @@
         <v>E13365</v>
       </c>
       <c r="E72" t="str">
-        <v>106</v>
+        <v>209-A</v>
       </c>
       <c r="F72" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G72">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="73">
@@ -2525,10 +2742,13 @@
         <v>40</v>
       </c>
       <c r="H73" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J73" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="74">
@@ -2554,10 +2774,13 @@
         <v>30</v>
       </c>
       <c r="H74" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J74" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="75">
@@ -2574,19 +2797,22 @@
         <v>E15791</v>
       </c>
       <c r="E75" t="str">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="F75" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G75">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1">
         <v>45402</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J75" t="str">
+        <v>E5942</v>
       </c>
     </row>
     <row r="76">
@@ -2603,19 +2829,22 @@
         <v>E15043</v>
       </c>
       <c r="E76" t="str">
-        <v>317</v>
+        <v>508</v>
       </c>
       <c r="F76" t="str">
         <v>14-D2</v>
       </c>
       <c r="G76">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H76" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I76">
         <v>1</v>
+      </c>
+      <c r="J76" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="77">
@@ -2632,19 +2861,22 @@
         <v>E14950</v>
       </c>
       <c r="E77" t="str">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" t="str">
         <v>11-D4</v>
       </c>
       <c r="G77">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I77">
         <v>4</v>
+      </c>
+      <c r="J77" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="78">
@@ -2661,19 +2893,22 @@
         <v>E15507</v>
       </c>
       <c r="E78" t="str">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="F78" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G78">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="79">
@@ -2690,19 +2925,22 @@
         <v>E16189</v>
       </c>
       <c r="E79" t="str">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="F79" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G79">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H79" s="1">
         <v>45401</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="80">
@@ -2719,19 +2957,22 @@
         <v>E15190</v>
       </c>
       <c r="E80" t="str">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="F80" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H80" s="1">
         <v>45402</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J80" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="81">
@@ -2748,7 +2989,7 @@
         <v>E16298</v>
       </c>
       <c r="E81" t="str">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F81" t="str">
         <v>14-D2</v>
@@ -2757,10 +2998,13 @@
         <v>30</v>
       </c>
       <c r="H81" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J81" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="82">
@@ -2777,19 +3021,22 @@
         <v>E13464</v>
       </c>
       <c r="E82" t="str">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="F82" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G82">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H82" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J82" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="83">
@@ -2806,19 +3053,22 @@
         <v>E13464</v>
       </c>
       <c r="E83" t="str">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="F83" t="str">
         <v>14-D2</v>
       </c>
       <c r="G83">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H83" s="1">
         <v>45401</v>
       </c>
       <c r="I83">
         <v>1</v>
+      </c>
+      <c r="J83" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="84">
@@ -2835,10 +3085,10 @@
         <v>E13851</v>
       </c>
       <c r="E84" t="str">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="F84" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G84">
         <v>36</v>
@@ -2847,7 +3097,10 @@
         <v>45402</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J84" t="str">
+        <v>E8466</v>
       </c>
     </row>
     <row r="85">
@@ -2864,19 +3117,22 @@
         <v>E13122</v>
       </c>
       <c r="E85" t="str">
-        <v>512</v>
+        <v>308</v>
       </c>
       <c r="F85" t="str">
         <v>14-D2</v>
       </c>
       <c r="G85">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1">
         <v>45402</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J85" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="86">
@@ -2902,10 +3158,13 @@
         <v>40</v>
       </c>
       <c r="H86" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J86" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="87">
@@ -2922,19 +3181,22 @@
         <v>E15190</v>
       </c>
       <c r="E87" t="str">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="F87" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G87">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I87">
         <v>2</v>
+      </c>
+      <c r="J87" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="88">
@@ -2951,19 +3213,22 @@
         <v>E15190</v>
       </c>
       <c r="E88" t="str">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F88" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G88">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H88" s="1">
         <v>45401</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J88" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="89">
@@ -2980,19 +3245,22 @@
         <v>E15400</v>
       </c>
       <c r="E89" t="str">
-        <v>412</v>
+        <v>101</v>
       </c>
       <c r="F89" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G89">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H89" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I89">
         <v>1</v>
+      </c>
+      <c r="J89" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="90">
@@ -3009,19 +3277,22 @@
         <v>E13828</v>
       </c>
       <c r="E90" t="str">
-        <v>103</v>
+        <v>415</v>
       </c>
       <c r="F90" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="91">
@@ -3038,19 +3309,22 @@
         <v>E14394</v>
       </c>
       <c r="E91" t="str">
-        <v>103</v>
+        <v>508</v>
       </c>
       <c r="F91" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G91">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H91" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J91" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="92">
@@ -3067,19 +3341,22 @@
         <v>E13618</v>
       </c>
       <c r="E92" t="str">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="F92" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G92">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H92" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J92" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="93">
@@ -3096,19 +3373,22 @@
         <v>E14496</v>
       </c>
       <c r="E93" t="str">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="F93" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G93">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H93" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I93">
         <v>2</v>
+      </c>
+      <c r="J93" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="94">
@@ -3125,19 +3405,22 @@
         <v>E13248</v>
       </c>
       <c r="E94" t="str">
-        <v>210</v>
+        <v>209-A</v>
       </c>
       <c r="F94" t="str">
         <v>12-D3</v>
       </c>
       <c r="G94">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H94" s="1">
         <v>45402</v>
       </c>
       <c r="I94">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="str">
+        <v>E8741</v>
       </c>
     </row>
     <row r="95">
@@ -3163,10 +3446,13 @@
         <v>41</v>
       </c>
       <c r="H95" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="96">
@@ -3183,19 +3469,22 @@
         <v>E14394</v>
       </c>
       <c r="E96" t="str">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F96" t="str">
         <v>11-D4</v>
       </c>
       <c r="G96">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H96" s="1">
         <v>45400</v>
       </c>
       <c r="I96">
         <v>1</v>
+      </c>
+      <c r="J96" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="97">
@@ -3212,19 +3501,22 @@
         <v>E13618</v>
       </c>
       <c r="E97" t="str">
-        <v>211</v>
+        <v>413</v>
       </c>
       <c r="F97" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G97">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H97" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J97" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="98">
@@ -3241,19 +3533,22 @@
         <v>E14496</v>
       </c>
       <c r="E98" t="str">
-        <v>102</v>
+        <v>410</v>
       </c>
       <c r="F98" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G98">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H98" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I98">
         <v>3</v>
+      </c>
+      <c r="J98" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="99">
@@ -3270,7 +3565,7 @@
         <v>E13248</v>
       </c>
       <c r="E99" t="str">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F99" t="str">
         <v>14-D2</v>
@@ -3279,10 +3574,13 @@
         <v>30</v>
       </c>
       <c r="H99" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J99" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="100">
@@ -3299,19 +3597,22 @@
         <v>E13828</v>
       </c>
       <c r="E100" t="str">
-        <v>508</v>
+        <v>412</v>
       </c>
       <c r="F100" t="str">
         <v>14-D2</v>
       </c>
       <c r="G100">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H100" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J100" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="101">
@@ -3328,19 +3629,22 @@
         <v>E16302</v>
       </c>
       <c r="E101" t="str">
-        <v>101</v>
+        <v>514</v>
       </c>
       <c r="F101" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G101">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H101" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="102">
@@ -3357,19 +3661,22 @@
         <v>E13618</v>
       </c>
       <c r="E102" t="str">
-        <v>416</v>
+        <v>308</v>
       </c>
       <c r="F102" t="str">
         <v>14-D2</v>
       </c>
       <c r="G102">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H102" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J102" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="103">
@@ -3386,19 +3693,22 @@
         <v>E13868</v>
       </c>
       <c r="E103" t="str">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="F103" t="str">
         <v>14-D2</v>
       </c>
       <c r="G103">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H103" s="1">
         <v>45401</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J103" t="str">
+        <v>E9621</v>
       </c>
     </row>
     <row r="104">
@@ -3415,19 +3725,22 @@
         <v>E13248</v>
       </c>
       <c r="E104" t="str">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="F104" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G104">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H104" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I104">
         <v>1</v>
+      </c>
+      <c r="J104" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="105">
@@ -3444,19 +3757,22 @@
         <v>E15060</v>
       </c>
       <c r="E105" t="str">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="F105" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G105">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H105" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J105" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="106">
@@ -3473,19 +3789,22 @@
         <v>E13868</v>
       </c>
       <c r="E106" t="str">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F106" t="str">
         <v>14-D2</v>
       </c>
       <c r="G106">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H106" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I106">
         <v>1</v>
+      </c>
+      <c r="J106" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="107">
@@ -3502,19 +3821,22 @@
         <v>E16302</v>
       </c>
       <c r="E107" t="str">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="F107" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G107">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107" s="1">
         <v>45401</v>
       </c>
       <c r="I107">
         <v>3</v>
+      </c>
+      <c r="J107" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="108">
@@ -3531,19 +3853,22 @@
         <v>E13618</v>
       </c>
       <c r="E108" t="str">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F108" t="str">
         <v>14-D2</v>
       </c>
       <c r="G108">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H108" s="1">
         <v>45401</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J108" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="109">
@@ -3560,19 +3885,22 @@
         <v>E13365</v>
       </c>
       <c r="E109" t="str">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F109" t="str">
         <v>14-D2</v>
       </c>
       <c r="G109">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H109" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J109" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="110">
@@ -3589,19 +3917,22 @@
         <v>E15063</v>
       </c>
       <c r="E110" t="str">
-        <v>102</v>
+        <v>409</v>
       </c>
       <c r="F110" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G110">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H110" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J110" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="111">
@@ -3618,19 +3949,22 @@
         <v>E14621</v>
       </c>
       <c r="E111" t="str">
-        <v>512</v>
+        <v>317</v>
       </c>
       <c r="F111" t="str">
         <v>14-D2</v>
       </c>
       <c r="G111">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H111" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J111" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="112">
@@ -3647,19 +3981,22 @@
         <v>E13038</v>
       </c>
       <c r="E112" t="str">
-        <v>307</v>
+        <v>514</v>
       </c>
       <c r="F112" t="str">
         <v>14-D2</v>
       </c>
       <c r="G112">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112" s="1">
         <v>45401</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J112" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="113">
@@ -3676,19 +4013,22 @@
         <v>E12849</v>
       </c>
       <c r="E113" t="str">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="F113" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G113">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H113" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I113">
         <v>1</v>
+      </c>
+      <c r="J113" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="114">
@@ -3714,10 +4054,13 @@
         <v>36</v>
       </c>
       <c r="H114" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J114" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="115">
@@ -3743,10 +4086,13 @@
         <v>30</v>
       </c>
       <c r="H115" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I115">
         <v>4</v>
+      </c>
+      <c r="J115" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="116">
@@ -3763,19 +4109,22 @@
         <v>E15380</v>
       </c>
       <c r="E116" t="str">
-        <v>102</v>
+        <v>513</v>
       </c>
       <c r="F116" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G116">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H116" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J116" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="117">
@@ -3792,19 +4141,22 @@
         <v>E14621</v>
       </c>
       <c r="E117" t="str">
-        <v>209</v>
+        <v>414</v>
       </c>
       <c r="F117" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G117">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H117" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J117" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="118">
@@ -3821,19 +4173,22 @@
         <v>E15565</v>
       </c>
       <c r="E118" t="str">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="F118" t="str">
         <v>12-D3</v>
       </c>
       <c r="G118">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H118" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J118" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="119">
@@ -3850,19 +4205,22 @@
         <v>E13142</v>
       </c>
       <c r="E119" t="str">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="F119" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G119">
         <v>35</v>
       </c>
       <c r="H119" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J119" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="120">
@@ -3879,19 +4237,22 @@
         <v>E13038</v>
       </c>
       <c r="E120" t="str">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F120" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G120">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H120" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J120" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="121">
@@ -3908,19 +4269,22 @@
         <v>E15063</v>
       </c>
       <c r="E121" t="str">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="F121" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G121">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H121" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J121" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="122">
@@ -3937,19 +4301,22 @@
         <v>E14621</v>
       </c>
       <c r="E122" t="str">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F122" t="str">
         <v>14-D2</v>
       </c>
       <c r="G122">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H122" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I122">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J122" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="123">
@@ -3975,10 +4342,13 @@
         <v>35</v>
       </c>
       <c r="H123" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J123" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="124">
@@ -3995,19 +4365,22 @@
         <v>E14422</v>
       </c>
       <c r="E124" t="str">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F124" t="str">
         <v>11-D4</v>
       </c>
       <c r="G124">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J124" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="125">
@@ -4024,19 +4397,22 @@
         <v>E16227</v>
       </c>
       <c r="E125" t="str">
-        <v>415</v>
+        <v>317</v>
       </c>
       <c r="F125" t="str">
         <v>14-D2</v>
       </c>
       <c r="G125">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H125" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J125" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="126">
@@ -4053,19 +4429,22 @@
         <v>E14621</v>
       </c>
       <c r="E126" t="str">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="F126" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G126">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H126" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J126" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="127">
@@ -4082,19 +4461,22 @@
         <v>E15400</v>
       </c>
       <c r="E127" t="str">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="F127" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G127">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H127" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="128">
@@ -4111,19 +4493,22 @@
         <v>E12849</v>
       </c>
       <c r="E128" t="str">
-        <v>410</v>
+        <v>209-A</v>
       </c>
       <c r="F128" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G128">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H128" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I128">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J128" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="129">
@@ -4140,19 +4525,22 @@
         <v>E14422</v>
       </c>
       <c r="E129" t="str">
-        <v>308</v>
+        <v>514</v>
       </c>
       <c r="F129" t="str">
         <v>14-D2</v>
       </c>
       <c r="G129">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H129" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J129" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="130">
@@ -4169,19 +4557,22 @@
         <v>E12849</v>
       </c>
       <c r="E130" t="str">
-        <v>512</v>
+        <v>106</v>
       </c>
       <c r="F130" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G130">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H130" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J130" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="131">
@@ -4198,19 +4589,22 @@
         <v>E15123</v>
       </c>
       <c r="E131" t="str">
-        <v>209-A</v>
+        <v>308</v>
       </c>
       <c r="F131" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G131">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H131" s="1">
         <v>45400</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J131" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="132">
@@ -4227,19 +4621,22 @@
         <v>E14621</v>
       </c>
       <c r="E132" t="str">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F132" t="str">
         <v>11-D4</v>
       </c>
       <c r="G132">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H132" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J132" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="133">
@@ -4256,19 +4653,22 @@
         <v>E12853</v>
       </c>
       <c r="E133" t="str">
-        <v>414</v>
+        <v>209-A</v>
       </c>
       <c r="F133" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G133">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H133" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J133" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="134">
@@ -4285,19 +4685,22 @@
         <v>E13987</v>
       </c>
       <c r="E134" t="str">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="F134" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G134">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H134" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J134" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="135">
@@ -4314,19 +4717,22 @@
         <v>E12849</v>
       </c>
       <c r="E135" t="str">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F135" t="str">
         <v>14-D2</v>
       </c>
       <c r="G135">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H135" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I135">
         <v>4</v>
+      </c>
+      <c r="J135" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="136">
@@ -4343,19 +4749,22 @@
         <v>E15123</v>
       </c>
       <c r="E136" t="str">
-        <v>210</v>
+        <v>209-A</v>
       </c>
       <c r="F136" t="str">
         <v>12-D3</v>
       </c>
       <c r="G136">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H136" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I136">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J136" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="137">
@@ -4372,19 +4781,22 @@
         <v>E14621</v>
       </c>
       <c r="E137" t="str">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="F137" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G137">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H137" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J137" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="138">
@@ -4401,19 +4813,22 @@
         <v>E12853</v>
       </c>
       <c r="E138" t="str">
-        <v>209</v>
+        <v>412</v>
       </c>
       <c r="F138" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G138">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H138" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J138" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="139">
@@ -4430,19 +4845,22 @@
         <v>E13987</v>
       </c>
       <c r="E139" t="str">
-        <v>414</v>
+        <v>101</v>
       </c>
       <c r="F139" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G139">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J139" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="140">
@@ -4468,10 +4886,13 @@
         <v>36</v>
       </c>
       <c r="H140" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I140">
         <v>1</v>
+      </c>
+      <c r="J140" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="141">
@@ -4488,19 +4909,22 @@
         <v>E16159</v>
       </c>
       <c r="E141" t="str">
-        <v>513</v>
+        <v>103</v>
       </c>
       <c r="F141" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G141">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H141" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J141" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="142">
@@ -4517,19 +4941,22 @@
         <v>E12853</v>
       </c>
       <c r="E142" t="str">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F142" t="str">
         <v>14-D2</v>
       </c>
       <c r="G142">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H142" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I142">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J142" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="143">
@@ -4546,19 +4973,22 @@
         <v>E12849</v>
       </c>
       <c r="E143" t="str">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F143" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G143">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143" s="1">
         <v>45401</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J143" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="144">
@@ -4575,10 +5005,10 @@
         <v>E13142</v>
       </c>
       <c r="E144" t="str">
-        <v>101</v>
+        <v>415</v>
       </c>
       <c r="F144" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G144">
         <v>35</v>
@@ -4587,7 +5017,10 @@
         <v>45400</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J144" t="str">
+        <v>E9758</v>
       </c>
     </row>
     <row r="145">
@@ -4604,19 +5037,22 @@
         <v>E13263</v>
       </c>
       <c r="E145" t="str">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="F145" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G145">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H145" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J145" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="146">
@@ -4633,19 +5069,22 @@
         <v>E12853</v>
       </c>
       <c r="E146" t="str">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="F146" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G146">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H146" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J146" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="147">
@@ -4662,19 +5101,22 @@
         <v>E16227</v>
       </c>
       <c r="E147" t="str">
-        <v>412</v>
+        <v>513</v>
       </c>
       <c r="F147" t="str">
         <v>14-D2</v>
       </c>
       <c r="G147">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H147" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J147" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="148">
@@ -4691,19 +5133,22 @@
         <v>E16159</v>
       </c>
       <c r="E148" t="str">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="F148" t="str">
         <v>14-D2</v>
       </c>
       <c r="G148">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H148" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I148">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J148" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="149">
@@ -4720,19 +5165,22 @@
         <v>E13248</v>
       </c>
       <c r="E149" t="str">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="F149" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G149">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H149" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I149">
         <v>4</v>
+      </c>
+      <c r="J149" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="150">
@@ -4749,19 +5197,22 @@
         <v>E15978</v>
       </c>
       <c r="E150" t="str">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="F150" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G150">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H150" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J150" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="151">
@@ -4787,10 +5238,13 @@
         <v>45</v>
       </c>
       <c r="H151" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J151" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="152">
@@ -4807,19 +5261,22 @@
         <v>E12903</v>
       </c>
       <c r="E152" t="str">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="F152" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G152">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H152" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J152" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="153">
@@ -4836,19 +5293,22 @@
         <v>E14380</v>
       </c>
       <c r="E153" t="str">
-        <v>210</v>
+        <v>508</v>
       </c>
       <c r="F153" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G153">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H153" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J153" t="str">
+        <v>E9842</v>
       </c>
     </row>
     <row r="154">
@@ -4865,19 +5325,22 @@
         <v>E1326</v>
       </c>
       <c r="E154" t="str">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="F154" t="str">
         <v>14-D2</v>
       </c>
       <c r="G154">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H154" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J154" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="155">
@@ -4894,19 +5357,22 @@
         <v>E15783</v>
       </c>
       <c r="E155" t="str">
-        <v>209</v>
+        <v>308</v>
       </c>
       <c r="F155" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G155">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H155" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J155" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="156">
@@ -4923,19 +5389,22 @@
         <v>E13419</v>
       </c>
       <c r="E156" t="str">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="F156" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G156">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H156" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J156" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="157">
@@ -4952,19 +5421,22 @@
         <v>E15398</v>
       </c>
       <c r="E157" t="str">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="F157" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G157">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H157" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I157">
         <v>2</v>
+      </c>
+      <c r="J157" t="str">
+        <v>E9836</v>
       </c>
     </row>
     <row r="158">
@@ -4981,19 +5453,22 @@
         <v>E14380</v>
       </c>
       <c r="E158" t="str">
-        <v>102</v>
+        <v>409</v>
       </c>
       <c r="F158" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G158">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H158" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I158">
         <v>3</v>
+      </c>
+      <c r="J158" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="159">
@@ -5010,19 +5485,22 @@
         <v>E15978</v>
       </c>
       <c r="E159" t="str">
-        <v>508</v>
+        <v>104</v>
       </c>
       <c r="F159" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G159">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H159" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I159">
         <v>3</v>
+      </c>
+      <c r="J159" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="160">
@@ -5039,19 +5517,22 @@
         <v>E15786</v>
       </c>
       <c r="E160" t="str">
-        <v>415</v>
+        <v>103</v>
       </c>
       <c r="F160" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G160">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J160" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="161">
@@ -5068,19 +5549,22 @@
         <v>E10488</v>
       </c>
       <c r="E161" t="str">
-        <v>412</v>
+        <v>101</v>
       </c>
       <c r="F161" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G161">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H161" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J161" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="162">
@@ -5097,19 +5581,22 @@
         <v>E1172</v>
       </c>
       <c r="E162" t="str">
-        <v>209-A</v>
+        <v>307</v>
       </c>
       <c r="F162" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G162">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H162" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J162" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="163">
@@ -5126,19 +5613,22 @@
         <v>E16227</v>
       </c>
       <c r="E163" t="str">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="F163" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G163">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H163" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J163" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="164">
@@ -5155,19 +5645,22 @@
         <v>E13987</v>
       </c>
       <c r="E164" t="str">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="F164" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G164">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H164" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J164" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="165">
@@ -5184,19 +5677,22 @@
         <v>E15786</v>
       </c>
       <c r="E165" t="str">
-        <v>513</v>
+        <v>104</v>
       </c>
       <c r="F165" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G165">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H165" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J165" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="166">
@@ -5213,19 +5709,22 @@
         <v>E15398</v>
       </c>
       <c r="E166" t="str">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="F166" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G166">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H166" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J166" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="167">
@@ -5242,19 +5741,22 @@
         <v>E1172</v>
       </c>
       <c r="E167" t="str">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="F167" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G167">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H167" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J167" t="str">
+        <v>E11567</v>
       </c>
     </row>
     <row r="168">
@@ -5271,19 +5773,22 @@
         <v>E16227</v>
       </c>
       <c r="E168" t="str">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="F168" t="str">
-        <v>11-D4</v>
+        <v>14-D2</v>
       </c>
       <c r="G168">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H168" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J168" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="169">
@@ -5300,19 +5805,22 @@
         <v>E13987</v>
       </c>
       <c r="E169" t="str">
-        <v>207</v>
+        <v>209-A</v>
       </c>
       <c r="F169" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G169">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H169" s="1">
         <v>45400</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J169" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="170">
@@ -5329,19 +5837,22 @@
         <v>E13263</v>
       </c>
       <c r="E170" t="str">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="F170" t="str">
         <v>14-D2</v>
       </c>
       <c r="G170">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H170" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I170">
         <v>4</v>
+      </c>
+      <c r="J170" t="str">
+        <v>E11606</v>
       </c>
     </row>
     <row r="171">
@@ -5358,19 +5869,22 @@
         <v>E14394</v>
       </c>
       <c r="E171" t="str">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F171" t="str">
         <v>14-D2</v>
       </c>
       <c r="G171">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H171" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J171" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="172">
@@ -5387,19 +5901,22 @@
         <v>E16159</v>
       </c>
       <c r="E172" t="str">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F172" t="str">
-        <v>11-D4</v>
+        <v>12-D3</v>
       </c>
       <c r="G172">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H172" s="1">
         <v>45402</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J172" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="173">
@@ -5416,19 +5933,22 @@
         <v>E15380</v>
       </c>
       <c r="E173" t="str">
-        <v>307</v>
+        <v>416</v>
       </c>
       <c r="F173" t="str">
         <v>14-D2</v>
       </c>
       <c r="G173">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H173" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J173" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="174">
@@ -5445,19 +5965,22 @@
         <v>E15282</v>
       </c>
       <c r="E174" t="str">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="F174" t="str">
         <v>14-D2</v>
       </c>
       <c r="G174">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H174" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J174" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="175">
@@ -5477,16 +6000,19 @@
         <v>101</v>
       </c>
       <c r="F175" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G175">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H175" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J175" t="str">
+        <v>E10051</v>
       </c>
     </row>
     <row r="176">
@@ -5503,19 +6029,22 @@
         <v>E14394</v>
       </c>
       <c r="E176" t="str">
-        <v>513</v>
+        <v>414</v>
       </c>
       <c r="F176" t="str">
         <v>14-D2</v>
       </c>
       <c r="G176">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H176" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I176">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J176" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="177">
@@ -5532,19 +6061,22 @@
         <v>E12903</v>
       </c>
       <c r="E177" t="str">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F177" t="str">
         <v>14-D2</v>
       </c>
       <c r="G177">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H177" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J177" t="str">
+        <v>E12652</v>
       </c>
     </row>
     <row r="178">
@@ -5561,19 +6093,22 @@
         <v>E15380</v>
       </c>
       <c r="E178" t="str">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F178" t="str">
         <v>14-D2</v>
       </c>
       <c r="G178">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H178" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I178">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J178" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="179">
@@ -5590,19 +6125,22 @@
         <v>E15282</v>
       </c>
       <c r="E179" t="str">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F179" t="str">
         <v>14-D2</v>
       </c>
       <c r="G179">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H179" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I179">
         <v>3</v>
+      </c>
+      <c r="J179" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="180">
@@ -5619,19 +6157,22 @@
         <v>E13263</v>
       </c>
       <c r="E180" t="str">
-        <v>306</v>
+        <v>508</v>
       </c>
       <c r="F180" t="str">
         <v>14-D2</v>
       </c>
       <c r="G180">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H180" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J180" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="181">
@@ -5648,19 +6189,22 @@
         <v>E14394</v>
       </c>
       <c r="E181" t="str">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F181" t="str">
         <v>14-D2</v>
       </c>
       <c r="G181">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H181" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J181" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="182">
@@ -5677,19 +6221,22 @@
         <v>E15506</v>
       </c>
       <c r="E182" t="str">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F182" t="str">
         <v>14-D2</v>
       </c>
       <c r="G182">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H182" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J182" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="183">
@@ -5706,19 +6253,22 @@
         <v>E15380</v>
       </c>
       <c r="E183" t="str">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="F183" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G183">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H183" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J183" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="184">
@@ -5735,19 +6285,22 @@
         <v>E15282</v>
       </c>
       <c r="E184" t="str">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F184" t="str">
         <v>14-D2</v>
       </c>
       <c r="G184">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H184" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J184" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="185">
@@ -5764,19 +6317,22 @@
         <v>E13263</v>
       </c>
       <c r="E185" t="str">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="F185" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G185">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H185" s="1">
         <v>45401</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J185" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="186">
@@ -5793,19 +6349,22 @@
         <v>E14394</v>
       </c>
       <c r="E186" t="str">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="F186" t="str">
         <v>14-D2</v>
       </c>
       <c r="G186">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H186" s="1">
         <v>45402</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J186" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="187">
@@ -5822,19 +6381,22 @@
         <v>E15506</v>
       </c>
       <c r="E187" t="str">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="F187" t="str">
         <v>14-D2</v>
       </c>
       <c r="G187">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H187" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I187">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J187" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="188">
@@ -5851,19 +6413,22 @@
         <v>E15380</v>
       </c>
       <c r="E188" t="str">
-        <v>409</v>
+        <v>209-A</v>
       </c>
       <c r="F188" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G188">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H188" s="1">
         <v>45402</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J188" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="189">
@@ -5880,19 +6445,22 @@
         <v>E14496</v>
       </c>
       <c r="E189" t="str">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="F189" t="str">
         <v>14-D2</v>
       </c>
       <c r="G189">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H189" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I189">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J189" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="190">
@@ -5909,19 +6477,22 @@
         <v>E14496</v>
       </c>
       <c r="E190" t="str">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="F190" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G190">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H190" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J190" t="str">
+        <v>E12791</v>
       </c>
     </row>
     <row r="191">
@@ -5938,19 +6509,22 @@
         <v>E13868</v>
       </c>
       <c r="E191" t="str">
-        <v>512</v>
+        <v>413</v>
       </c>
       <c r="F191" t="str">
         <v>14-D2</v>
       </c>
       <c r="G191">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H191" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I191">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J191" t="str">
+        <v>E11567</v>
       </c>
     </row>
     <row r="192">
@@ -5967,19 +6541,22 @@
         <v>E13868</v>
       </c>
       <c r="E192" t="str">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="F192" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G192">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H192" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J192" t="str">
+        <v>E10488</v>
       </c>
     </row>
     <row r="193">
@@ -5996,19 +6573,22 @@
         <v>E14422</v>
       </c>
       <c r="E193" t="str">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="F193" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G193">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H193" s="1">
         <v>45401</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J193" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="194">
@@ -6025,19 +6605,22 @@
         <v>E14422</v>
       </c>
       <c r="E194" t="str">
-        <v>409</v>
+        <v>513</v>
       </c>
       <c r="F194" t="str">
         <v>14-D2</v>
       </c>
       <c r="G194">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H194" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I194">
         <v>3</v>
+      </c>
+      <c r="J194" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="195">
@@ -6054,19 +6637,22 @@
         <v>E15282</v>
       </c>
       <c r="E195" t="str">
-        <v>207</v>
+        <v>104</v>
       </c>
       <c r="F195" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G195">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H195" s="1">
         <v>45400</v>
       </c>
       <c r="I195">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J195" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="196">
@@ -6083,19 +6669,22 @@
         <v>E15063</v>
       </c>
       <c r="E196" t="str">
-        <v>411</v>
+        <v>512</v>
       </c>
       <c r="F196" t="str">
         <v>14-D2</v>
       </c>
       <c r="G196">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H196" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I196">
         <v>1</v>
+      </c>
+      <c r="J196" t="str">
+        <v>E11567</v>
       </c>
     </row>
     <row r="197">
@@ -6112,19 +6701,22 @@
         <v>E15063</v>
       </c>
       <c r="E197" t="str">
-        <v>409</v>
+        <v>102</v>
       </c>
       <c r="F197" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G197">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H197" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I197">
         <v>4</v>
+      </c>
+      <c r="J197" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="198">
@@ -6141,19 +6733,22 @@
         <v>E12853</v>
       </c>
       <c r="E198" t="str">
-        <v>209-A</v>
+        <v>410</v>
       </c>
       <c r="F198" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G198">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H198" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J198" t="str">
+        <v>E11032</v>
       </c>
     </row>
     <row r="199">
@@ -6170,19 +6765,22 @@
         <v>E13419</v>
       </c>
       <c r="E199" t="str">
-        <v>209-A</v>
+        <v>318</v>
       </c>
       <c r="F199" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G199">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H199" s="1">
         <v>45402</v>
       </c>
       <c r="I199">
         <v>4</v>
+      </c>
+      <c r="J199" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="200">
@@ -6199,19 +6797,22 @@
         <v>E13419</v>
       </c>
       <c r="E200" t="str">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F200" t="str">
         <v>14-D2</v>
       </c>
       <c r="G200">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H200" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J200" t="str">
+        <v>E11606</v>
       </c>
     </row>
     <row r="201">
@@ -6228,19 +6829,22 @@
         <v>E16302</v>
       </c>
       <c r="E201" t="str">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="F201" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G201">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H201" s="1">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="I201">
         <v>1</v>
+      </c>
+      <c r="J201" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="202">
@@ -6257,19 +6861,22 @@
         <v>E16302</v>
       </c>
       <c r="E202" t="str">
-        <v>512</v>
+        <v>317</v>
       </c>
       <c r="F202" t="str">
         <v>14-D2</v>
       </c>
       <c r="G202">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H202" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I202">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J202" t="str">
+        <v>E11606</v>
       </c>
     </row>
     <row r="203">
@@ -6286,19 +6893,22 @@
         <v>E1172</v>
       </c>
       <c r="E203" t="str">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="F203" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G203">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H203" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I203">
         <v>1</v>
+      </c>
+      <c r="J203" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="204">
@@ -6315,19 +6925,22 @@
         <v>E13142</v>
       </c>
       <c r="E204" t="str">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="F204" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G204">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H204" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J204" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="205">
@@ -6344,19 +6957,22 @@
         <v>E13142</v>
       </c>
       <c r="E205" t="str">
-        <v>317</v>
+        <v>101</v>
       </c>
       <c r="F205" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G205">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H205" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J205" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="206">
@@ -6373,19 +6989,22 @@
         <v>E15786</v>
       </c>
       <c r="E206" t="str">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F206" t="str">
         <v>14-D2</v>
       </c>
       <c r="G206">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H206" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J206" t="str">
+        <v>E12791</v>
       </c>
     </row>
     <row r="207">
@@ -6402,19 +7021,22 @@
         <v>E15786</v>
       </c>
       <c r="E207" t="str">
-        <v>317</v>
+        <v>209-A</v>
       </c>
       <c r="F207" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G207">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H207" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I207">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J207" t="str">
+        <v>E11567</v>
       </c>
     </row>
     <row r="208">
@@ -6431,19 +7053,22 @@
         <v>E15506</v>
       </c>
       <c r="E208" t="str">
-        <v>508</v>
+        <v>306</v>
       </c>
       <c r="F208" t="str">
         <v>14-D2</v>
       </c>
       <c r="G208">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H208" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I208">
         <v>1</v>
+      </c>
+      <c r="J208" t="str">
+        <v>E12652</v>
       </c>
     </row>
     <row r="209">
@@ -6460,19 +7085,22 @@
         <v>E15506</v>
       </c>
       <c r="E209" t="str">
-        <v>317</v>
+        <v>514</v>
       </c>
       <c r="F209" t="str">
         <v>14-D2</v>
       </c>
       <c r="G209">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H209" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="J209" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="210">
@@ -6489,19 +7117,22 @@
         <v>E15190</v>
       </c>
       <c r="E210" t="str">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="F210" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G210">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H210" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I210">
         <v>1</v>
+      </c>
+      <c r="J210" t="str">
+        <v>E12791</v>
       </c>
     </row>
     <row r="211">
@@ -6518,19 +7149,22 @@
         <v>E13122</v>
       </c>
       <c r="E211" t="str">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="F211" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G211">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H211" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I211">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J211" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="212">
@@ -6547,19 +7181,22 @@
         <v>E11296</v>
       </c>
       <c r="E212" t="str">
-        <v>411</v>
+        <v>101</v>
       </c>
       <c r="F212" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G212">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H212" s="1">
         <v>45400</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J212" t="str">
+        <v>E11201</v>
       </c>
     </row>
     <row r="213">
@@ -6576,7 +7213,7 @@
         <v>E11296</v>
       </c>
       <c r="E213" t="str">
-        <v>414</v>
+        <v>207</v>
       </c>
       <c r="F213" t="str">
         <v>14-D2</v>
@@ -6589,6 +7226,9 @@
       </c>
       <c r="I213">
         <v>1</v>
+      </c>
+      <c r="J213" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="214">
@@ -6605,19 +7245,22 @@
         <v>E11201</v>
       </c>
       <c r="E214" t="str">
-        <v>413</v>
+        <v>207</v>
       </c>
       <c r="F214" t="str">
         <v>14-D2</v>
       </c>
       <c r="G214">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H214" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J214" t="str">
+        <v>E11567</v>
       </c>
     </row>
     <row r="215">
@@ -6634,19 +7277,22 @@
         <v>E11201</v>
       </c>
       <c r="E215" t="str">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F215" t="str">
         <v>14-D2</v>
       </c>
       <c r="G215">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H215" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J215" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="216">
@@ -6663,19 +7309,22 @@
         <v>E13485</v>
       </c>
       <c r="E216" t="str">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="F216" t="str">
         <v>14-D2</v>
       </c>
       <c r="G216">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H216" s="1">
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J216" t="str">
+        <v>E11606</v>
       </c>
     </row>
     <row r="217">
@@ -6692,19 +7341,22 @@
         <v>E13485</v>
       </c>
       <c r="E217" t="str">
-        <v>514</v>
+        <v>210</v>
       </c>
       <c r="F217" t="str">
-        <v>14-D2</v>
+        <v>12-D3</v>
       </c>
       <c r="G217">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H217" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J217" t="str">
+        <v>E12833</v>
       </c>
     </row>
     <row r="218">
@@ -6721,19 +7373,22 @@
         <v>E15857</v>
       </c>
       <c r="E218" t="str">
-        <v>513</v>
+        <v>412</v>
       </c>
       <c r="F218" t="str">
         <v>14-D2</v>
       </c>
       <c r="G218">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H218" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I218">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J218" t="str">
+        <v>E12849</v>
       </c>
     </row>
     <row r="219">
@@ -6750,19 +7405,22 @@
         <v>E8741</v>
       </c>
       <c r="E219" t="str">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="F219" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G219">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H219" s="1">
         <v>45402</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J219" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="220">
@@ -6779,19 +7437,22 @@
         <v>E8042</v>
       </c>
       <c r="E220" t="str">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="F220" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G220">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H220" s="1">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="I220">
         <v>2</v>
+      </c>
+      <c r="J220" t="str">
+        <v>E11296</v>
       </c>
     </row>
     <row r="221">
@@ -6808,19 +7469,22 @@
         <v>E11296</v>
       </c>
       <c r="E221" t="str">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="F221" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G221">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H221" s="1">
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J221" t="str">
+        <v>E12800</v>
       </c>
     </row>
     <row r="222">
@@ -6837,19 +7501,22 @@
         <v>E11296</v>
       </c>
       <c r="E222" t="str">
-        <v>209-A</v>
+        <v>101</v>
       </c>
       <c r="F222" t="str">
-        <v>12-D3</v>
+        <v>11-D4</v>
       </c>
       <c r="G222">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H222" s="1">
         <v>45401</v>
       </c>
       <c r="I222">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="J222" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="223">
@@ -6866,19 +7533,22 @@
         <v>E15857</v>
       </c>
       <c r="E223" t="str">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="F223" t="str">
         <v>14-D2</v>
       </c>
       <c r="G223">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H223" s="1">
         <v>45402</v>
       </c>
       <c r="I223">
         <v>4</v>
+      </c>
+      <c r="J223" t="str">
+        <v>E12652</v>
       </c>
     </row>
     <row r="224">
@@ -6895,19 +7565,22 @@
         <v>E15857</v>
       </c>
       <c r="E224" t="str">
-        <v>101</v>
+        <v>514</v>
       </c>
       <c r="F224" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G224">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H224" s="1">
         <v>45400</v>
       </c>
       <c r="I224">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J224" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="225">
@@ -6924,19 +7597,22 @@
         <v>E13365</v>
       </c>
       <c r="E225" t="str">
-        <v>508</v>
+        <v>414</v>
       </c>
       <c r="F225" t="str">
         <v>14-D2</v>
       </c>
       <c r="G225">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H225" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J225" t="str">
+        <v>E11486</v>
       </c>
     </row>
     <row r="226">
@@ -6953,19 +7629,22 @@
         <v>E13485</v>
       </c>
       <c r="E226" t="str">
-        <v>514</v>
+        <v>414</v>
       </c>
       <c r="F226" t="str">
         <v>14-D2</v>
       </c>
       <c r="G226">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H226" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I226">
         <v>4</v>
+      </c>
+      <c r="J226" t="str">
+        <v>E11421</v>
       </c>
     </row>
     <row r="227">
@@ -6982,19 +7661,22 @@
         <v>E15857</v>
       </c>
       <c r="E227" t="str">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="F227" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G227">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H227" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I227">
         <v>2</v>
+      </c>
+      <c r="J227" t="str">
+        <v>E12800</v>
       </c>
     </row>
     <row r="228">
@@ -7011,19 +7693,22 @@
         <v>E13244</v>
       </c>
       <c r="E228" t="str">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="F228" t="str">
-        <v>12-D3</v>
+        <v>14-D2</v>
       </c>
       <c r="G228">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H228" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J228" t="str">
+        <v>E11253</v>
       </c>
     </row>
     <row r="229">
@@ -7040,19 +7725,22 @@
         <v>E8042</v>
       </c>
       <c r="E229" t="str">
-        <v>318</v>
+        <v>102</v>
       </c>
       <c r="F229" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G229">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H229" s="1">
-        <v>45400</v>
+        <v>45403</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="J229" t="str">
+        <v>E12833</v>
       </c>
     </row>
     <row r="230">
@@ -7069,7 +7757,7 @@
         <v>E11201</v>
       </c>
       <c r="E230" t="str">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F230" t="str">
         <v>14-D2</v>
@@ -7078,10 +7766,13 @@
         <v>30</v>
       </c>
       <c r="H230" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I230">
         <v>1</v>
+      </c>
+      <c r="J230" t="str">
+        <v>E12833</v>
       </c>
     </row>
     <row r="231">
@@ -7098,19 +7789,22 @@
         <v>E11201</v>
       </c>
       <c r="E231" t="str">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="F231" t="str">
-        <v>14-D2</v>
+        <v>11-D4</v>
       </c>
       <c r="G231">
         <v>36</v>
       </c>
       <c r="H231" s="1">
-        <v>45402</v>
+        <v>45400</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="J231" t="str">
+        <v>E11286</v>
       </c>
     </row>
     <row r="232">
@@ -7127,19 +7821,22 @@
         <v>E13485</v>
       </c>
       <c r="E232" t="str">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F232" t="str">
         <v>14-D2</v>
       </c>
       <c r="G232">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H232" s="1">
-        <v>45402</v>
+        <v>45403</v>
       </c>
       <c r="I232">
         <v>2</v>
+      </c>
+      <c r="J232" t="str">
+        <v>E12853</v>
       </c>
     </row>
     <row r="233">
@@ -7156,24 +7853,27 @@
         <v>E16227</v>
       </c>
       <c r="E233" t="str">
-        <v>508</v>
+        <v>414</v>
       </c>
       <c r="F233" t="str">
         <v>14-D2</v>
       </c>
       <c r="G233">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H233" s="1">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="I233">
         <v>4</v>
       </c>
+      <c r="J233" t="str">
+        <v>E12791</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I233"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J233"/>
   </ignoredErrors>
 </worksheet>
 </file>